--- a/market_data.xlsx
+++ b/market_data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoinesusini/Desktop/Professional Projet/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65EBA1A-17DD-0844-BB8E-2A0445C05715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="10515" windowHeight="7740"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="23420" windowHeight="14000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NDX-2015" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,20 @@
     <sheet name="SPX-2015" sheetId="3" r:id="rId3"/>
     <sheet name="SPX-2014" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -88,7 +107,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -272,13 +291,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -295,7 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -319,11 +337,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -332,18 +362,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -356,14 +374,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -401,7 +422,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -473,7 +494,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -646,568 +667,560 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="28">
+      <c r="K2" s="24">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="22">
+      <c r="E3" s="21">
         <v>42164</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="5"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="26">
         <v>1.32E-2</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="7" t="s">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="23">
+      <c r="D4" s="7"/>
+      <c r="E4" s="22">
         <v>4427.6099999999997</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D6" s="24" t="s">
+      <c r="F4" s="8"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="20"/>
-      <c r="D7" s="10">
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C7" s="19"/>
+      <c r="D7" s="9">
         <v>0.8</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>0.9</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>0.95</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>0.97499999999999998</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>1</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>1.0249999999999999</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <v>1.05</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="19" t="s">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <f>D7*$E$4</f>
         <v>3542.0879999999997</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <f t="shared" ref="E8:L8" si="0">E7*$E$4</f>
         <v>3984.8489999999997</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <f t="shared" si="0"/>
         <v>4206.2294999999995</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <f t="shared" si="0"/>
         <v>4316.91975</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <f t="shared" si="0"/>
         <v>4427.6099999999997</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="14">
         <f t="shared" si="0"/>
         <v>4538.3002499999993</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="14">
         <f t="shared" si="0"/>
         <v>4648.9904999999999</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="14">
         <f t="shared" si="0"/>
         <v>4870.3710000000001</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="16">
         <f t="shared" si="0"/>
         <v>5313.1319999999996</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="18" t="s">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C9" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>30.77</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>22.29</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>18.68</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>16.86</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>14.72</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="13">
         <v>12.84</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <v>11.54</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="13">
         <v>10.59</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="15">
         <v>12.37</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="18" t="s">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C10" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>28.05</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>21.56</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>18.72</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>17.11</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>15.47</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
         <v>13.97</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <v>12.66</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="13">
         <v>11.13</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="15">
         <v>11.51</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="18" t="s">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C11" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>26.43</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>21.16</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>18.63</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>17.25</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>15.87</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="13">
         <v>14.56</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <v>13.37</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="13">
         <v>11.59</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="15">
         <v>11.06</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="18" t="s">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C12" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>24.55</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>20.83</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>18.86</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>17.84</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>16.84</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <v>15.9</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <v>15.01</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="13">
         <v>13.43</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="15">
         <v>11.51</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="18" t="s">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>24.26</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>21.1</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>19.37</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <v>18.5</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <v>17.649999999999999</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="13">
         <v>16.829999999999998</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <v>16.05</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="13">
         <v>14.61</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="15">
         <v>12.42</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="18" t="s">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C14" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>24.1</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>21.36</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="13">
         <v>19.91</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <v>19.170000000000002</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <v>18.440000000000001</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="13">
         <v>17.72</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="13">
         <v>17.04</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="13">
         <v>15.81</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="15">
         <v>13.74</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="18" t="s">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>24.22</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>21.91</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <v>20.72</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="13">
         <v>20.12</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="13">
         <v>19.54</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="13">
         <v>18.96</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="13">
         <v>18.41</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="13">
         <v>17.39</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="15">
         <v>15.62</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="18" t="s">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C16" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>24.25</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>22.25</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <v>21.24</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>20.73</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <v>20.239999999999998</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="13">
         <v>19.75</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="13">
         <v>19.28</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="13">
         <v>18.39</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="15">
         <v>16.850000000000001</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C17" s="18" t="s">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>24.51</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>22.86</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <v>22.04</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <v>21.64</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <v>21.25</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="13">
         <v>20.87</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="13">
         <v>20.49</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="13">
         <v>19.78</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="15">
         <v>18.510000000000002</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C18" s="18" t="s">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C18" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>24.77</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>23.31</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <v>22.6</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <v>22.26</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <v>21.93</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="13">
         <v>21.6</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="13">
         <v>21.28</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="13">
         <v>20.68</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="15">
         <v>19.59</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C19" s="18" t="s">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <v>25.14</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="13">
         <v>23.82</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="13">
         <v>23.19</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="13">
         <v>22.89</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="13">
         <v>22.6</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="13">
         <v>22.31</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="13">
         <v>22.04</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="13">
         <v>21.51</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="15">
         <v>20.55</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C20" s="18" t="s">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>26.01</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <v>24.9</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="13">
         <v>24.39</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
         <v>24.14</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <v>23.9</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="13">
         <v>23.67</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="13">
         <v>23.44</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="13">
         <v>23.01</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="15">
         <v>22.22</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C21" s="19" t="s">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <v>27.43</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="14">
         <v>26.52</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="14">
         <v>26.11</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="14">
         <v>25.91</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="14">
         <v>25.72</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="14">
         <v>25.54</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="14">
         <v>25.36</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="14">
         <v>25.02</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="16">
         <v>24.39</v>
       </c>
     </row>
@@ -1220,597 +1233,562 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:N22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="C2:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="28">
+      <c r="K2" s="24">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="22">
+      <c r="E3" s="21">
         <v>41799</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="5"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="26">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="7" t="s">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="23">
+      <c r="D4" s="7"/>
+      <c r="E4" s="22">
         <v>3795.74</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D6" s="24" t="s">
+      <c r="F4" s="8"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="20"/>
-      <c r="D7" s="10">
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C7" s="19"/>
+      <c r="D7" s="9">
         <v>0.8</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>0.9</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>0.95</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>0.97499999999999998</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>1</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>1.0249999999999999</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <v>1.05</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="19" t="s">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <f>D7*$E$4</f>
         <v>3036.5920000000001</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <f t="shared" ref="E8:L8" si="0">E7*$E$4</f>
         <v>3416.1659999999997</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <f t="shared" si="0"/>
         <v>3605.9529999999995</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <f t="shared" si="0"/>
         <v>3700.8464999999997</v>
       </c>
-      <c r="H8" s="15">
-        <f t="shared" si="0"/>
+      <c r="H8" s="14">
+        <f>H7*$E$4</f>
         <v>3795.74</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="14">
         <f t="shared" si="0"/>
         <v>3890.6334999999995</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="14">
         <f t="shared" si="0"/>
         <v>3985.527</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="14">
         <f t="shared" si="0"/>
         <v>4175.3140000000003</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="16">
         <f t="shared" si="0"/>
         <v>4554.8879999999999</v>
       </c>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="18" t="s">
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C9" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>25.29</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>19.149999999999999</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>15.35</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>13.7</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>12.25</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="13">
         <v>11.04</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <v>10.71</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="13">
         <v>11.46</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="15">
         <v>13.56</v>
       </c>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="18" t="s">
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C10" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>24.28</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>18.46</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>15.81</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>14.58</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>13.43</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
         <v>12.39</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <v>11.67</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="13">
         <v>11.52</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="15">
         <v>12.55</v>
       </c>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="18" t="s">
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C11" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>23.03</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>18.079999999999998</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>15.96</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>14.96</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>14</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="13">
         <v>13.1</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <v>12.38</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="13">
         <v>11.83</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="15">
         <v>12.06</v>
       </c>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="18" t="s">
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C12" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>21.93</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>18.239999999999998</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>16.61</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>15.85</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>15.13</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <v>14.47</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <v>13.86</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="13">
         <v>12.87</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="15">
         <v>12.4</v>
       </c>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="18" t="s">
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>21.22</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>18.350000000000001</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>17.05</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <v>16.41</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <v>15.79</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="13">
         <v>15.2</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <v>14.65</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="13">
         <v>13.71</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="15">
         <v>12.72</v>
       </c>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="18" t="s">
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C14" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>21.14</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>18.61</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="13">
         <v>17.48</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <v>16.93</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <v>16.39</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="13">
         <v>15.86</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="13">
         <v>15.35</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="13">
         <v>14.43</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="15">
         <v>13.28</v>
       </c>
-      <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="18" t="s">
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>21.15</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>19.149999999999999</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <v>18.18</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="13">
         <v>17.71</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="13">
         <v>17.239999999999998</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="13">
         <v>16.79</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="13">
         <v>16.36</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="13">
         <v>15.58</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="15">
         <v>14.39</v>
       </c>
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="18" t="s">
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C16" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>21.03</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>19.329999999999998</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <v>18.510000000000002</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>18.100000000000001</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <v>17.71</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="13">
         <v>17.329999999999998</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="13">
         <v>16.97</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="13">
         <v>16.3</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="15">
         <v>15.22</v>
       </c>
-      <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C17" s="18" t="s">
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>21.19</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>19.68</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <v>18.95</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <v>18.59</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <v>18.25</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="13">
         <v>17.91</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="13">
         <v>17.59</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="13">
         <v>16.989999999999998</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="15">
         <v>15.98</v>
       </c>
-      <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C18" s="18" t="s">
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C18" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>21.29</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>19.989999999999998</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <v>19.36</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <v>19.059999999999999</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <v>18.77</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="13">
         <v>18.489999999999998</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="13">
         <v>18.22</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="13">
         <v>17.72</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="15">
         <v>16.84</v>
       </c>
-      <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C19" s="18" t="s">
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <v>21.52</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="13">
         <v>20.36</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="13">
         <v>19.82</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="13">
         <v>19.559999999999999</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="13">
         <v>19.309999999999999</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="13">
         <v>19.059999999999999</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="13">
         <v>18.82</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="13">
         <v>18.38</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="15">
         <v>17.600000000000001</v>
       </c>
-      <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C20" s="18" t="s">
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>22.14</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <v>21.18</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="13">
         <v>20.74</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
         <v>20.53</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <v>20.329999999999998</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="13">
         <v>20.13</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="13">
         <v>19.940000000000001</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="13">
         <v>19.579999999999998</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="15">
         <v>18.93</v>
       </c>
-      <c r="M20" s="5"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C21" s="19" t="s">
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <v>23.17</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="14">
         <v>22.41</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="14">
         <v>22.06</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="14">
         <v>21.89</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="14">
         <v>21.73</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="14">
         <v>21.57</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="14">
         <v>21.42</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="14">
         <v>21.14</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="16">
         <v>20.62</v>
       </c>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1821,568 +1799,560 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C2:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="28">
+      <c r="K2" s="24">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="22">
+      <c r="E3" s="21">
         <v>42164</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="5"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="26">
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="7" t="s">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="23">
+      <c r="D4" s="7"/>
+      <c r="E4" s="22">
         <v>2079.94</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D6" s="24" t="s">
+      <c r="F4" s="8"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="20"/>
-      <c r="D7" s="10">
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C7" s="19"/>
+      <c r="D7" s="9">
         <v>0.8</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>0.9</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>0.95</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>0.97499999999999998</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>1</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>1.0249999999999999</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <v>1.05</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="19" t="s">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <f>D7*$E$4</f>
         <v>1663.9520000000002</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <f t="shared" ref="E8:L8" si="0">E7*$E$4</f>
         <v>1871.9460000000001</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <f t="shared" si="0"/>
         <v>1975.943</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <f t="shared" si="0"/>
         <v>2027.9414999999999</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <f t="shared" si="0"/>
         <v>2079.94</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="14">
         <f t="shared" si="0"/>
         <v>2131.9384999999997</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="14">
         <f t="shared" si="0"/>
         <v>2183.9370000000004</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="14">
         <f t="shared" si="0"/>
         <v>2287.9340000000002</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="16">
         <f t="shared" si="0"/>
         <v>2495.9279999999999</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="18" t="s">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C9" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>29.24</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>21.51</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>17.47</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>15.69</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>13.14</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="13">
         <v>10.43</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <v>9.68</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="13">
         <v>10.71</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="15">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="18" t="s">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C10" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>26.92</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>20.440000000000001</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>17.39</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>15.71</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>13.73</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
         <v>11.52</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <v>9.98</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="13">
         <v>9.89</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="15">
         <v>10.88</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="18" t="s">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C11" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>25.36</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>20.149999999999999</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>17.36</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>15.82</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>14.08</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="13">
         <v>12.2</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <v>10.63</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="13">
         <v>9.6300000000000008</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="15">
         <v>10.3</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="18" t="s">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C12" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>23.79</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>19.739999999999998</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>17.5</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>16.29</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>15.03</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <v>13.76</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <v>12.53</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="13">
         <v>10.71</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="15">
         <v>9.9499999999999993</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="18" t="s">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>23.43</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>19.79</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>17.84</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <v>16.84</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <v>15.81</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="13">
         <v>14.78</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <v>13.76</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="13">
         <v>12.04</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="15">
         <v>10.53</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="18" t="s">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C14" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>23.28</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>20.05</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="13">
         <v>18.36</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <v>17.489999999999998</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <v>16.600000000000001</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="13">
         <v>15.71</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="13">
         <v>14.82</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="13">
         <v>13.22</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="15">
         <v>11.25</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="18" t="s">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>23.14</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>20.38</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <v>18.920000000000002</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="13">
         <v>18.190000000000001</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="13">
         <v>17.48</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="13">
         <v>16.78</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="13">
         <v>16.11</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="13">
         <v>14.86</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="15">
         <v>12.83</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="18" t="s">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C16" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>23.11</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>20.71</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <v>19.47</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>18.850000000000001</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <v>18.239999999999998</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="13">
         <v>17.649999999999999</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="13">
         <v>17.079999999999998</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="13">
         <v>16.010000000000002</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="15">
         <v>14.17</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C17" s="18" t="s">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>23.2</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>21.22</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <v>20.23</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <v>19.75</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <v>19.27</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="13">
         <v>18.809999999999999</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="13">
         <v>18.36</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="13">
         <v>17.52</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="15">
         <v>16.07</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C18" s="18" t="s">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C18" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>23.39</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>21.64</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <v>20.8</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <v>20.39</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <v>20</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="13">
         <v>19.62</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="13">
         <v>19.260000000000002</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="13">
         <v>18.57</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="15">
         <v>17.36</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C19" s="18" t="s">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <v>23.71</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="13">
         <v>22.15</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="13">
         <v>21.42</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="13">
         <v>21.08</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="13">
         <v>20.74</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="13">
         <v>20.420000000000002</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="13">
         <v>20.11</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="13">
         <v>19.52</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="15">
         <v>18.48</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C20" s="18" t="s">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>24.55</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <v>23.28</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="13">
         <v>22.71</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
         <v>22.44</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <v>22.18</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="13">
         <v>21.92</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="13">
         <v>21.68</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="13">
         <v>21.22</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="15">
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C21" s="19" t="s">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <v>26.01</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="14">
         <v>25.04</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="14">
         <v>24.61</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="14">
         <v>24.4</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="14">
         <v>24.21</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="14">
         <v>24.02</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="14">
         <v>23.83</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="14">
         <v>23.49</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="16">
         <v>22.87</v>
       </c>
     </row>
@@ -2395,568 +2365,560 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C2:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="28">
+      <c r="K2" s="24">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="22">
+      <c r="E3" s="21">
         <v>41799</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="5"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="26">
         <v>2.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="7" t="s">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="23">
+      <c r="D4" s="7"/>
+      <c r="E4" s="22">
         <v>1951.16</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D6" s="24" t="s">
+      <c r="F4" s="8"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="20"/>
-      <c r="D7" s="10">
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C7" s="19"/>
+      <c r="D7" s="9">
         <v>0.8</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>0.9</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>0.95</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>0.97499999999999998</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>1</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>1.0249999999999999</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <v>1.05</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="19" t="s">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <f>D7*$E$4</f>
         <v>1560.9280000000001</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <f t="shared" ref="E8:L8" si="0">E7*$E$4</f>
         <v>1756.0440000000001</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <f t="shared" si="0"/>
         <v>1853.6020000000001</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <f t="shared" si="0"/>
         <v>1902.3810000000001</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <f t="shared" si="0"/>
         <v>1951.16</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="14">
         <f t="shared" si="0"/>
         <v>1999.9389999999999</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="14">
         <f t="shared" si="0"/>
         <v>2048.7180000000003</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="14">
         <f t="shared" si="0"/>
         <v>2146.2760000000003</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="16">
         <f t="shared" si="0"/>
         <v>2341.3919999999998</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="18" t="s">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C9" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>26.98</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>18.2</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>13.37</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>11.19</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>9.2200000000000006</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="13">
         <v>8.0299999999999994</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <v>8.1199999999999992</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="13">
         <v>8.35</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="15">
         <v>10.35</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="18" t="s">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C10" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>23.4</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>16.63</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>13.64</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>12.1</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>10.61</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
         <v>9.3000000000000007</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <v>8.66</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="13">
         <v>8.6300000000000008</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="15">
         <v>9.6</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="18" t="s">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C11" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>21.94</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>16.510000000000002</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>13.87</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>12.53</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>11.24</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="13">
         <v>10.09</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <v>9.3000000000000007</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="13">
         <v>8.83</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="15">
         <v>9.31</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="18" t="s">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C12" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>20.71</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>16.72</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>14.68</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>13.67</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>12.71</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <v>11.79</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <v>10.97</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="13">
         <v>10.02</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="15">
         <v>9.82</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="18" t="s">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>20.28</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>16.88</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>15.13</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <v>14.28</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <v>13.47</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="13">
         <v>12.69</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <v>11.95</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="13">
         <v>10.78</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="15">
         <v>10.119999999999999</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="18" t="s">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C14" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>20.27</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>17.170000000000002</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="13">
         <v>15.67</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <v>14.93</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <v>14.21</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="13">
         <v>13.5</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="13">
         <v>12.82</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="13">
         <v>11.67</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="15">
         <v>10.59</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="18" t="s">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>19.88</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>17.32</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <v>16.09</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="13">
         <v>15.49</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="13">
         <v>14.91</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="13">
         <v>14.34</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="13">
         <v>13.79</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="13">
         <v>12.79</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="15">
         <v>11.42</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="18" t="s">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C16" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>19.7</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>17.47</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <v>16.41</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>15.9</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <v>15.39</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="13">
         <v>14.9</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="13">
         <v>14.44</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="13">
         <v>13.58</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="15">
         <v>12.26</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C17" s="18" t="s">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>19.53</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>17.739999999999998</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <v>16.920000000000002</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <v>16.52</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <v>16.14</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="13">
         <v>15.76</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="13">
         <v>15.41</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="13">
         <v>14.74</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="15">
         <v>13.62</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C18" s="18" t="s">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C18" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>19.53</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>18.03</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <v>17.350000000000001</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <v>17.02</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <v>16.7</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="13">
         <v>16.399999999999999</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="13">
         <v>16.100000000000001</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="13">
         <v>15.55</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="15">
         <v>14.6</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C19" s="18" t="s">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <v>19.72</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="13">
         <v>18.420000000000002</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="13">
         <v>17.829999999999998</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="13">
         <v>17.55</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="13">
         <v>17.28</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="13">
         <v>17.02</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="13">
         <v>16.77</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="13">
         <v>16.29</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="15">
         <v>15.46</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C20" s="18" t="s">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>20.32</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <v>19.3</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="13">
         <v>18.829999999999998</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
         <v>18.61</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <v>18.399999999999999</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="13">
         <v>18.190000000000001</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="13">
         <v>17.989999999999998</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="13">
         <v>17.62</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="15">
         <v>16.95</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C21" s="19" t="s">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <v>21.42</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="14">
         <v>20.63</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="14">
         <v>20.28</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="14">
         <v>20.11</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="14">
         <v>19.940000000000001</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="14">
         <v>19.79</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="14">
         <v>19.63</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="14">
         <v>19.34</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="16">
         <v>18.829999999999998</v>
       </c>
     </row>
